--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Pgf-Flt1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Pgf-Flt1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,19 +76,19 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>FAPs</t>
+  </si>
+  <si>
+    <t>MuSCs</t>
+  </si>
+  <si>
+    <t>Pgf</t>
+  </si>
+  <si>
+    <t>Flt1</t>
+  </si>
+  <si>
     <t>ECs</t>
-  </si>
-  <si>
-    <t>FAPs</t>
-  </si>
-  <si>
-    <t>MuSCs</t>
-  </si>
-  <si>
-    <t>Pgf</t>
-  </si>
-  <si>
-    <t>Flt1</t>
   </si>
 </sst>
 </file>
@@ -446,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T10"/>
+  <dimension ref="A1:T7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,31 +519,31 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" t="s">
         <v>23</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>24</v>
       </c>
-      <c r="D2" t="s">
-        <v>20</v>
-      </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>2.384646333333333</v>
+        <v>3.736173</v>
       </c>
       <c r="H2">
-        <v>7.153939</v>
+        <v>11.208519</v>
       </c>
       <c r="I2">
-        <v>0.3245205637288702</v>
+        <v>0.8038593646893297</v>
       </c>
       <c r="J2">
-        <v>0.3245205637288702</v>
+        <v>0.8038593646893297</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>149.829178</v>
+        <v>192.036265</v>
       </c>
       <c r="N2">
-        <v>449.487534</v>
+        <v>576.108795</v>
       </c>
       <c r="O2">
-        <v>0.965236887286734</v>
+        <v>0.9537264487607444</v>
       </c>
       <c r="P2">
-        <v>0.965236887286734</v>
+        <v>0.9537264487607444</v>
       </c>
       <c r="Q2">
-        <v>357.2895999440474</v>
+        <v>717.4807083138451</v>
       </c>
       <c r="R2">
-        <v>3215.606399496427</v>
+        <v>6457.326374824605</v>
       </c>
       <c r="S2">
-        <v>0.3132392187941908</v>
+        <v>0.7666619371882226</v>
       </c>
       <c r="T2">
-        <v>0.3132392187941908</v>
+        <v>0.7666619371882226</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -581,31 +581,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" t="s">
         <v>23</v>
       </c>
-      <c r="C3" t="s">
-        <v>24</v>
-      </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>2.384646333333333</v>
+        <v>3.736173</v>
       </c>
       <c r="H3">
-        <v>7.153939</v>
+        <v>11.208519</v>
       </c>
       <c r="I3">
-        <v>0.3245205637288702</v>
+        <v>0.8038593646893297</v>
       </c>
       <c r="J3">
-        <v>0.3245205637288702</v>
+        <v>0.8038593646893297</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>3.064358</v>
       </c>
       <c r="O3">
-        <v>0.006580452523633729</v>
+        <v>0.005072929450888834</v>
       </c>
       <c r="P3">
-        <v>0.006580452523633729</v>
+        <v>0.005072929450888834</v>
       </c>
       <c r="Q3">
-        <v>2.435803356240223</v>
+        <v>3.816323873978001</v>
       </c>
       <c r="R3">
-        <v>21.922230206162</v>
+        <v>34.34691486580201</v>
       </c>
       <c r="S3">
-        <v>0.002135492162560684</v>
+        <v>0.004077921845505288</v>
       </c>
       <c r="T3">
-        <v>0.002135492162560684</v>
+        <v>0.004077921845505288</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -643,31 +643,31 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" t="s">
         <v>23</v>
       </c>
-      <c r="C4" t="s">
-        <v>24</v>
-      </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>2.384646333333333</v>
+        <v>3.736173</v>
       </c>
       <c r="H4">
-        <v>7.153939</v>
+        <v>11.208519</v>
       </c>
       <c r="I4">
-        <v>0.3245205637288702</v>
+        <v>0.8038593646893297</v>
       </c>
       <c r="J4">
-        <v>0.3245205637288702</v>
+        <v>0.8038593646893297</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>4.374661666666667</v>
+        <v>8.295893999999999</v>
       </c>
       <c r="N4">
-        <v>13.123985</v>
+        <v>24.887682</v>
       </c>
       <c r="O4">
-        <v>0.02818266018963228</v>
+        <v>0.04120062178836673</v>
       </c>
       <c r="P4">
-        <v>0.02818266018963228</v>
+        <v>0.04120062178836673</v>
       </c>
       <c r="Q4">
-        <v>10.43202090299056</v>
+        <v>30.994895173662</v>
       </c>
       <c r="R4">
-        <v>93.88818812691501</v>
+        <v>278.954056562958</v>
       </c>
       <c r="S4">
-        <v>0.009145852772118657</v>
+        <v>0.03311950565560183</v>
       </c>
       <c r="T4">
-        <v>0.009145852772118655</v>
+        <v>0.03311950565560183</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -705,14 +705,14 @@
         <v>21</v>
       </c>
       <c r="B5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>24</v>
       </c>
-      <c r="D5" t="s">
-        <v>20</v>
-      </c>
       <c r="E5">
         <v>3</v>
       </c>
@@ -720,16 +720,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>3.736173</v>
+        <v>0.9116213333333333</v>
       </c>
       <c r="H5">
-        <v>11.208519</v>
+        <v>2.734864</v>
       </c>
       <c r="I5">
-        <v>0.5084464522895362</v>
+        <v>0.1961406353106703</v>
       </c>
       <c r="J5">
-        <v>0.5084464522895361</v>
+        <v>0.1961406353106703</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>149.829178</v>
+        <v>192.036265</v>
       </c>
       <c r="N5">
-        <v>449.487534</v>
+        <v>576.108795</v>
       </c>
       <c r="O5">
-        <v>0.965236887286734</v>
+        <v>0.9537264487607444</v>
       </c>
       <c r="P5">
-        <v>0.965236887286734</v>
+        <v>0.9537264487607444</v>
       </c>
       <c r="Q5">
-        <v>559.7877294557941</v>
+        <v>175.0643559476533</v>
       </c>
       <c r="R5">
-        <v>5038.089565102146</v>
+        <v>1575.57920352888</v>
       </c>
       <c r="S5">
-        <v>0.4907712709599348</v>
+        <v>0.1870645115725218</v>
       </c>
       <c r="T5">
-        <v>0.4907712709599347</v>
+        <v>0.1870645115725218</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -767,13 +767,13 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" t="s">
         <v>23</v>
       </c>
-      <c r="C6" t="s">
-        <v>24</v>
-      </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -782,16 +782,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>3.736173</v>
+        <v>0.9116213333333333</v>
       </c>
       <c r="H6">
-        <v>11.208519</v>
+        <v>2.734864</v>
       </c>
       <c r="I6">
-        <v>0.5084464522895362</v>
+        <v>0.1961406353106703</v>
       </c>
       <c r="J6">
-        <v>0.5084464522895361</v>
+        <v>0.1961406353106703</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,22 +806,22 @@
         <v>3.064358</v>
       </c>
       <c r="O6">
-        <v>0.006580452523633729</v>
+        <v>0.005072929450888834</v>
       </c>
       <c r="P6">
-        <v>0.006580452523633729</v>
+        <v>0.005072929450888834</v>
       </c>
       <c r="Q6">
-        <v>3.816323873978001</v>
+        <v>0.9311780419235556</v>
       </c>
       <c r="R6">
-        <v>34.34691486580201</v>
+        <v>8.380602377312002</v>
       </c>
       <c r="S6">
-        <v>0.003345807740101295</v>
+        <v>0.0009950076053835456</v>
       </c>
       <c r="T6">
-        <v>0.003345807740101294</v>
+        <v>0.0009950076053835456</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -829,13 +829,13 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" t="s">
         <v>23</v>
       </c>
-      <c r="C7" t="s">
-        <v>24</v>
-      </c>
       <c r="D7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -844,16 +844,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>3.736173</v>
+        <v>0.9116213333333333</v>
       </c>
       <c r="H7">
-        <v>11.208519</v>
+        <v>2.734864</v>
       </c>
       <c r="I7">
-        <v>0.5084464522895362</v>
+        <v>0.1961406353106703</v>
       </c>
       <c r="J7">
-        <v>0.5084464522895361</v>
+        <v>0.1961406353106703</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,214 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>4.374661666666667</v>
+        <v>8.295893999999999</v>
       </c>
       <c r="N7">
-        <v>13.123985</v>
+        <v>24.887682</v>
       </c>
       <c r="O7">
-        <v>0.02818266018963228</v>
+        <v>0.04120062178836673</v>
       </c>
       <c r="P7">
-        <v>0.02818266018963228</v>
+        <v>0.04120062178836673</v>
       </c>
       <c r="Q7">
-        <v>16.344492803135</v>
+        <v>7.562713949471998</v>
       </c>
       <c r="R7">
-        <v>147.100435228215</v>
+        <v>68.064425545248</v>
       </c>
       <c r="S7">
-        <v>0.01432937358950008</v>
+        <v>0.008081116132764894</v>
       </c>
       <c r="T7">
-        <v>0.01432937358950008</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20">
-      <c r="A8" t="s">
-        <v>22</v>
-      </c>
-      <c r="B8" t="s">
-        <v>23</v>
-      </c>
-      <c r="C8" t="s">
-        <v>24</v>
-      </c>
-      <c r="D8" t="s">
-        <v>20</v>
-      </c>
-      <c r="E8">
-        <v>3</v>
-      </c>
-      <c r="F8">
-        <v>1</v>
-      </c>
-      <c r="G8">
-        <v>1.227394</v>
-      </c>
-      <c r="H8">
-        <v>3.682182</v>
-      </c>
-      <c r="I8">
-        <v>0.1670329839815937</v>
-      </c>
-      <c r="J8">
-        <v>0.1670329839815937</v>
-      </c>
-      <c r="K8">
-        <v>3</v>
-      </c>
-      <c r="L8">
-        <v>1</v>
-      </c>
-      <c r="M8">
-        <v>149.829178</v>
-      </c>
-      <c r="N8">
-        <v>449.487534</v>
-      </c>
-      <c r="O8">
-        <v>0.965236887286734</v>
-      </c>
-      <c r="P8">
-        <v>0.965236887286734</v>
-      </c>
-      <c r="Q8">
-        <v>183.899434102132</v>
-      </c>
-      <c r="R8">
-        <v>1655.094906919188</v>
-      </c>
-      <c r="S8">
-        <v>0.1612263975326084</v>
-      </c>
-      <c r="T8">
-        <v>0.1612263975326084</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20">
-      <c r="A9" t="s">
-        <v>22</v>
-      </c>
-      <c r="B9" t="s">
-        <v>23</v>
-      </c>
-      <c r="C9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" t="s">
-        <v>21</v>
-      </c>
-      <c r="E9">
-        <v>3</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9">
-        <v>1.227394</v>
-      </c>
-      <c r="H9">
-        <v>3.682182</v>
-      </c>
-      <c r="I9">
-        <v>0.1670329839815937</v>
-      </c>
-      <c r="J9">
-        <v>0.1670329839815937</v>
-      </c>
-      <c r="K9">
-        <v>3</v>
-      </c>
-      <c r="L9">
-        <v>1</v>
-      </c>
-      <c r="M9">
-        <v>1.021452666666667</v>
-      </c>
-      <c r="N9">
-        <v>3.064358</v>
-      </c>
-      <c r="O9">
-        <v>0.006580452523633729</v>
-      </c>
-      <c r="P9">
-        <v>0.006580452523633729</v>
-      </c>
-      <c r="Q9">
-        <v>1.253724874350667</v>
-      </c>
-      <c r="R9">
-        <v>11.283523869156</v>
-      </c>
-      <c r="S9">
-        <v>0.001099152620971751</v>
-      </c>
-      <c r="T9">
-        <v>0.001099152620971751</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20">
-      <c r="A10" t="s">
-        <v>22</v>
-      </c>
-      <c r="B10" t="s">
-        <v>23</v>
-      </c>
-      <c r="C10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" t="s">
-        <v>22</v>
-      </c>
-      <c r="E10">
-        <v>3</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-      <c r="G10">
-        <v>1.227394</v>
-      </c>
-      <c r="H10">
-        <v>3.682182</v>
-      </c>
-      <c r="I10">
-        <v>0.1670329839815937</v>
-      </c>
-      <c r="J10">
-        <v>0.1670329839815937</v>
-      </c>
-      <c r="K10">
-        <v>3</v>
-      </c>
-      <c r="L10">
-        <v>1</v>
-      </c>
-      <c r="M10">
-        <v>4.374661666666667</v>
-      </c>
-      <c r="N10">
-        <v>13.123985</v>
-      </c>
-      <c r="O10">
-        <v>0.02818266018963228</v>
-      </c>
-      <c r="P10">
-        <v>0.02818266018963228</v>
-      </c>
-      <c r="Q10">
-        <v>5.369433481696668</v>
-      </c>
-      <c r="R10">
-        <v>48.32490133527001</v>
-      </c>
-      <c r="S10">
-        <v>0.004707433828013548</v>
-      </c>
-      <c r="T10">
-        <v>0.004707433828013548</v>
+        <v>0.008081116132764894</v>
       </c>
     </row>
   </sheetData>
